--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.9387444395546</v>
+        <v>274.5113404033091</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.7170666741733</v>
+        <v>375.598526525425</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.2991571530973</v>
+        <v>339.7519303096805</v>
       </c>
       <c r="AD2" t="n">
-        <v>232938.7444395546</v>
+        <v>274511.3404033092</v>
       </c>
       <c r="AE2" t="n">
-        <v>318717.0666741733</v>
+        <v>375598.526525425</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.053909593135311e-06</v>
+        <v>5.162785690587706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.634114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>288299.1571530973</v>
+        <v>339751.9303096805</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.613436801097</v>
+        <v>149.3571538642378</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.974578255563</v>
+        <v>204.3570470895469</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.1798114887729</v>
+        <v>184.8534973322957</v>
       </c>
       <c r="AD3" t="n">
-        <v>128613.436801097</v>
+        <v>149357.1538642378</v>
       </c>
       <c r="AE3" t="n">
-        <v>175974.578255563</v>
+        <v>204357.0470895469</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.656257461837754e-06</v>
+        <v>7.871634265043244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.351128472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>159179.8114887729</v>
+        <v>184853.4973322957</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.0231466332808</v>
+        <v>124.8521150424422</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.3290584009362</v>
+        <v>170.8281718875693</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.7453728272773</v>
+        <v>154.5245709215123</v>
       </c>
       <c r="AD4" t="n">
-        <v>104023.1466332808</v>
+        <v>124852.1150424422</v>
       </c>
       <c r="AE4" t="n">
-        <v>142329.0584009362</v>
+        <v>170828.1718875693</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.238861511523296e-06</v>
+        <v>8.856555317636331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.8671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>128745.3728272773</v>
+        <v>154524.5709215123</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.61348265681954</v>
+        <v>118.4424510659809</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.5590733739288</v>
+        <v>162.058186860562</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.8123828624935</v>
+        <v>146.5915809567284</v>
       </c>
       <c r="AD5" t="n">
-        <v>97613.48265681954</v>
+        <v>118442.4510659809</v>
       </c>
       <c r="AE5" t="n">
-        <v>133559.0733739288</v>
+        <v>162058.186860562</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.552197920296479e-06</v>
+        <v>9.386266063229665e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.650173611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>120812.3828624935</v>
+        <v>146591.5809567284</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.2240811072305</v>
+        <v>115.0530495163919</v>
       </c>
       <c r="AB6" t="n">
-        <v>128.9215446439404</v>
+        <v>157.4206581305736</v>
       </c>
       <c r="AC6" t="n">
-        <v>116.6174533656812</v>
+        <v>142.3966514599161</v>
       </c>
       <c r="AD6" t="n">
-        <v>94224.08110723051</v>
+        <v>115053.0495163919</v>
       </c>
       <c r="AE6" t="n">
-        <v>128921.5446439404</v>
+        <v>157420.6581305736</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.732020901016729e-06</v>
+        <v>9.690265734270416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.53515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>116617.4533656812</v>
+        <v>142396.6514599161</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.33581233299331</v>
+        <v>111.9941885415625</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.9696878856057</v>
+        <v>153.235389597392</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.0427562698949</v>
+        <v>138.6108190814788</v>
       </c>
       <c r="AD7" t="n">
-        <v>91335.81233299332</v>
+        <v>111994.1885415625</v>
       </c>
       <c r="AE7" t="n">
-        <v>124969.6878856057</v>
+        <v>153235.389597392</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.875151030530821e-06</v>
+        <v>9.932234319787277e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.448350694444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>113042.7562698949</v>
+        <v>138610.8190814788</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.4394739649953</v>
+        <v>110.0978501735645</v>
       </c>
       <c r="AB8" t="n">
-        <v>122.3750340699678</v>
+        <v>150.6407357817541</v>
       </c>
       <c r="AC8" t="n">
-        <v>110.6957325728011</v>
+        <v>136.2637953843851</v>
       </c>
       <c r="AD8" t="n">
-        <v>89439.4739649953</v>
+        <v>110097.8501735645</v>
       </c>
       <c r="AE8" t="n">
-        <v>122375.0340699678</v>
+        <v>150640.7357817541</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.959180460773928e-06</v>
+        <v>1.007429024083436e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.400607638888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>110695.7325728011</v>
+        <v>136263.7953843851</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>87.94989287670467</v>
+        <v>108.6082690852738</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.3369235092899</v>
+        <v>148.6026252210762</v>
       </c>
       <c r="AC9" t="n">
-        <v>108.8521364235276</v>
+        <v>134.4201992351115</v>
       </c>
       <c r="AD9" t="n">
-        <v>87949.89287670466</v>
+        <v>108608.2690852738</v>
       </c>
       <c r="AE9" t="n">
-        <v>120336.9235092899</v>
+        <v>148602.6252210762</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.015386813003205e-06</v>
+        <v>1.016930986802362e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.368055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>108852.1364235276</v>
+        <v>134420.1992351115</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>86.43448269243476</v>
+        <v>107.0928589010039</v>
       </c>
       <c r="AB10" t="n">
-        <v>118.2634724399939</v>
+        <v>146.5291741517803</v>
       </c>
       <c r="AC10" t="n">
-        <v>106.9765726141777</v>
+        <v>132.5446354257616</v>
       </c>
       <c r="AD10" t="n">
-        <v>86434.48269243476</v>
+        <v>107092.8589010039</v>
       </c>
       <c r="AE10" t="n">
-        <v>118263.4724399939</v>
+        <v>146529.1741517803</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.074114048139777e-06</v>
+        <v>1.026859117284431e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.335503472222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>106976.5726141777</v>
+        <v>132544.6354257616</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>84.72872456327177</v>
+        <v>105.3871007718409</v>
       </c>
       <c r="AB11" t="n">
-        <v>115.9295789149367</v>
+        <v>144.195280626723</v>
       </c>
       <c r="AC11" t="n">
-        <v>104.8654226115111</v>
+        <v>130.433485423095</v>
       </c>
       <c r="AD11" t="n">
-        <v>84728.72456327177</v>
+        <v>105387.100771841</v>
       </c>
       <c r="AE11" t="n">
-        <v>115929.5789149367</v>
+        <v>144195.280626723</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.136202460486072e-06</v>
+        <v>1.037355471450687e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.302951388888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>104865.4226115111</v>
+        <v>130433.485423095</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>83.66022878129114</v>
+        <v>94.07480249442285</v>
       </c>
       <c r="AB12" t="n">
-        <v>114.4676158473245</v>
+        <v>128.7172950601895</v>
       </c>
       <c r="AC12" t="n">
-        <v>103.5429872471933</v>
+        <v>116.4326970755373</v>
       </c>
       <c r="AD12" t="n">
-        <v>83660.22878129114</v>
+        <v>94074.80249442285</v>
       </c>
       <c r="AE12" t="n">
-        <v>114467.6158473245</v>
+        <v>128717.2950601895</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.173548873927453e-06</v>
+        <v>1.043669067941668e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH12" t="n">
-        <v>103542.9872471933</v>
+        <v>116432.6970755373</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>83.51415231848074</v>
+        <v>93.92872603161247</v>
       </c>
       <c r="AB13" t="n">
-        <v>114.2677475864687</v>
+        <v>128.5174267993337</v>
       </c>
       <c r="AC13" t="n">
-        <v>103.3621941326366</v>
+        <v>116.2519039609807</v>
       </c>
       <c r="AD13" t="n">
-        <v>83514.15231848074</v>
+        <v>93928.72603161247</v>
       </c>
       <c r="AE13" t="n">
-        <v>114267.7475864687</v>
+        <v>128517.4267993337</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.170374428784935e-06</v>
+        <v>1.043132412239935e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.283420138888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>103362.1941326367</v>
+        <v>116251.9039609807</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.0654843927744</v>
+        <v>200.3371879243543</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.6910985057416</v>
+        <v>274.1101787709339</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.4833866484287</v>
+        <v>247.9494880251685</v>
       </c>
       <c r="AD2" t="n">
-        <v>170065.4843927744</v>
+        <v>200337.1879243543</v>
       </c>
       <c r="AE2" t="n">
-        <v>232691.0985057416</v>
+        <v>274110.1787709339</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.736520405675845e-06</v>
+        <v>6.470872437826512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.609809027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>210483.3866484287</v>
+        <v>247949.4880251685</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.2393851118073</v>
+        <v>131.3352694535068</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.2026342452243</v>
+        <v>179.69870976937</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.6766284506404</v>
+        <v>162.5485171177548</v>
       </c>
       <c r="AD3" t="n">
-        <v>111239.3851118073</v>
+        <v>131335.2694535067</v>
       </c>
       <c r="AE3" t="n">
-        <v>152202.6342452243</v>
+        <v>179698.70976937</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.208585429273671e-06</v>
+        <v>9.020181408123617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>137676.6284506404</v>
+        <v>162548.5171177548</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.97674549173779</v>
+        <v>111.1578811794578</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.4783967924891</v>
+        <v>152.091116969284</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.5983533091738</v>
+        <v>137.5757542270004</v>
       </c>
       <c r="AD4" t="n">
-        <v>90976.74549173779</v>
+        <v>111157.8811794578</v>
       </c>
       <c r="AE4" t="n">
-        <v>124478.3967924891</v>
+        <v>152091.116969284</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.745119856547862e-06</v>
+        <v>9.949346904482153e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.648003472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>112598.3533091738</v>
+        <v>137575.7542270004</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.39373909266907</v>
+        <v>106.4042825797969</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.2077252493138</v>
+        <v>145.5870336512619</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.9261458571344</v>
+        <v>131.6924114923099</v>
       </c>
       <c r="AD5" t="n">
-        <v>86393.73909266907</v>
+        <v>106404.2825797969</v>
       </c>
       <c r="AE5" t="n">
-        <v>118207.7252493138</v>
+        <v>145587.0336512619</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.014208049956663e-06</v>
+        <v>1.041535141804739e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.485243055555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>106926.1458571344</v>
+        <v>131692.4114923099</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.39916120096197</v>
+        <v>103.4097046880898</v>
       </c>
       <c r="AB6" t="n">
-        <v>114.1104116664296</v>
+        <v>141.4897200683776</v>
       </c>
       <c r="AC6" t="n">
-        <v>103.2198741319836</v>
+        <v>127.9861397671591</v>
       </c>
       <c r="AD6" t="n">
-        <v>83399.16120096197</v>
+        <v>103409.7046880898</v>
       </c>
       <c r="AE6" t="n">
-        <v>114110.4116664296</v>
+        <v>141489.7200683776</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.178017660876019e-06</v>
+        <v>1.069903542917683e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>103219.8741319836</v>
+        <v>127986.1397671591</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.11691685748434</v>
+        <v>101.1274603446121</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.9877442701706</v>
+        <v>138.3670526721187</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.3952297293314</v>
+        <v>125.1614953645069</v>
       </c>
       <c r="AD7" t="n">
-        <v>81116.91685748434</v>
+        <v>101127.4603446121</v>
       </c>
       <c r="AE7" t="n">
-        <v>110987.7442701706</v>
+        <v>138367.0526721187</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.287352849296251e-06</v>
+        <v>1.088838112528446e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>100395.2297293314</v>
+        <v>125161.4953645069</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.91705161381459</v>
+        <v>89.00770896622562</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.9777915925782</v>
+        <v>121.784274150524</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.6725427107923</v>
+        <v>110.1613539509322</v>
       </c>
       <c r="AD8" t="n">
-        <v>78917.05161381459</v>
+        <v>89007.70896622562</v>
       </c>
       <c r="AE8" t="n">
-        <v>107977.7915925782</v>
+        <v>121784.274150524</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.387705553155456e-06</v>
+        <v>1.106217103540445e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.28125</v>
       </c>
       <c r="AH8" t="n">
-        <v>97672.5427107923</v>
+        <v>110161.3539509322</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>77.65833917095317</v>
+        <v>87.74899652336421</v>
       </c>
       <c r="AB9" t="n">
-        <v>106.2555656977822</v>
+        <v>120.0620482557281</v>
       </c>
       <c r="AC9" t="n">
-        <v>96.1146836382359</v>
+        <v>108.6034948783758</v>
       </c>
       <c r="AD9" t="n">
-        <v>77658.33917095317</v>
+        <v>87748.99652336421</v>
       </c>
       <c r="AE9" t="n">
-        <v>106255.5656977822</v>
+        <v>120062.0482557281</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.432521390105092e-06</v>
+        <v>1.113978269882665e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.259548611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>96114.6836382359</v>
+        <v>108603.4948783758</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>77.74021019506075</v>
+        <v>87.83086754747184</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.3675852448608</v>
+        <v>120.1740678028067</v>
       </c>
       <c r="AC10" t="n">
-        <v>96.2160121969618</v>
+        <v>108.7048234371017</v>
       </c>
       <c r="AD10" t="n">
-        <v>77740.21019506076</v>
+        <v>87830.86754747183</v>
       </c>
       <c r="AE10" t="n">
-        <v>106367.5852448608</v>
+        <v>120174.0678028067</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.433970177937516e-06</v>
+        <v>1.11422916965666e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.257378472222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>96216.0121969618</v>
+        <v>108704.8234371017</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.85731280720513</v>
+        <v>96.08804403263561</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.5278102049993</v>
+        <v>131.471900950719</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.36094551178185</v>
+        <v>118.9244072459892</v>
       </c>
       <c r="AD2" t="n">
-        <v>77857.31280720513</v>
+        <v>96088.0440326356</v>
       </c>
       <c r="AE2" t="n">
-        <v>106527.8102049993</v>
+        <v>131471.900950719</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.911068473603427e-06</v>
+        <v>1.118501355322473e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.956163194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>96360.94551178184</v>
+        <v>118924.4072459892</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.35461144053097</v>
+        <v>83.41475046536927</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.4210626148686</v>
+        <v>114.1317415857414</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.88684190217673</v>
+        <v>103.2391683537331</v>
       </c>
       <c r="AD3" t="n">
-        <v>65354.61144053098</v>
+        <v>83414.75046536926</v>
       </c>
       <c r="AE3" t="n">
-        <v>89421.0626148686</v>
+        <v>114131.7415857414</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.955630987663966e-06</v>
+        <v>1.316155060894172e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.361545138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>80886.84190217673</v>
+        <v>103239.1683537331</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.72212256095567</v>
+        <v>72.83757768222195</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.18741930950834</v>
+        <v>99.65958715191657</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.86637437894129</v>
+        <v>90.14821602727156</v>
       </c>
       <c r="AD4" t="n">
-        <v>63722.12256095567</v>
+        <v>72837.57768222195</v>
       </c>
       <c r="AE4" t="n">
-        <v>87187.41930950835</v>
+        <v>99659.58715191657</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.092290631476262e-06</v>
+        <v>1.342014006278501e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.298611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>78866.37437894128</v>
+        <v>90148.21602727156</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.8188036092827</v>
+        <v>126.7268138212068</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.5224437280669</v>
+        <v>173.3932174625468</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.4431087477504</v>
+        <v>156.8448121468788</v>
       </c>
       <c r="AD2" t="n">
-        <v>107818.8036092827</v>
+        <v>126726.8138212068</v>
       </c>
       <c r="AE2" t="n">
-        <v>147522.4437280669</v>
+        <v>173393.2174625468</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.020213349697675e-06</v>
+        <v>9.145738459419017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.457465277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>133443.1087477504</v>
+        <v>156844.8121468788</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.88731394421309</v>
+        <v>96.88057550215777</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.5688590842103</v>
+        <v>132.5562774713395</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.39807674357344</v>
+        <v>119.905292393414</v>
       </c>
       <c r="AD3" t="n">
-        <v>77887.31394421309</v>
+        <v>96880.57550215776</v>
       </c>
       <c r="AE3" t="n">
-        <v>106568.8590842103</v>
+        <v>132556.2774713394</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.229230021263806e-06</v>
+        <v>1.134830426708276e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.591579861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>96398.07674357345</v>
+        <v>119905.292393414</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.77245344424315</v>
+        <v>90.59512280159564</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.20223717954971</v>
+        <v>123.956243791832</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.82995349086337</v>
+        <v>112.1260338580529</v>
       </c>
       <c r="AD4" t="n">
-        <v>71772.45344424316</v>
+        <v>90595.12280159563</v>
       </c>
       <c r="AE4" t="n">
-        <v>98202.23717954972</v>
+        <v>123956.243791832</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.68165754598086e-06</v>
+        <v>1.217252896126905e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.348524305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>88829.95349086338</v>
+        <v>112126.0338580529</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.88516582869032</v>
+        <v>78.38188611621369</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.2517228858126</v>
+        <v>107.2455545489255</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.25647073673765</v>
+        <v>97.01018934288452</v>
       </c>
       <c r="AD5" t="n">
-        <v>68885.16582869033</v>
+        <v>78381.88611621369</v>
       </c>
       <c r="AE5" t="n">
-        <v>94251.7228858126</v>
+        <v>107245.5545489255</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.863948307990831e-06</v>
+        <v>1.250462314069507e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.259548611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>85256.47073673765</v>
+        <v>97010.18934288452</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.53468111566944</v>
+        <v>78.0314014031928</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.77217423916341</v>
+        <v>106.7660059022763</v>
       </c>
       <c r="AC6" t="n">
-        <v>84.82268953987376</v>
+        <v>96.57640814602063</v>
       </c>
       <c r="AD6" t="n">
-        <v>68534.68111566945</v>
+        <v>78031.40140319281</v>
       </c>
       <c r="AE6" t="n">
-        <v>93772.1742391634</v>
+        <v>106766.0059022763</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.885394279992005e-06</v>
+        <v>1.254369304415695e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>84822.68953987377</v>
+        <v>96576.40814602062</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.20305412684398</v>
+        <v>82.8083540609784</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.21369521204537</v>
+        <v>113.302043272933</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.6992653532369</v>
+        <v>102.4886552834099</v>
       </c>
       <c r="AD2" t="n">
-        <v>65203.05412684398</v>
+        <v>82808.3540609784</v>
       </c>
       <c r="AE2" t="n">
-        <v>89213.69521204536</v>
+        <v>113302.043272933</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.65381533684643e-06</v>
+        <v>1.303933419780569e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.650173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>80699.2653532369</v>
+        <v>102488.6552834099</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.74567443726701</v>
+        <v>77.18038217080921</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.74666755817016</v>
+        <v>105.6016038442109</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.94488033860604</v>
+        <v>95.52313498612801</v>
       </c>
       <c r="AD3" t="n">
-        <v>59745.67443726701</v>
+        <v>77180.38217080921</v>
       </c>
       <c r="AE3" t="n">
-        <v>81746.66755817016</v>
+        <v>105601.6038442109</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.230388292907529e-06</v>
+        <v>1.416923141960935e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>73944.88033860605</v>
+        <v>95523.13498612802</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.3174218496379</v>
+        <v>211.8445413196858</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.086495734661</v>
+        <v>289.8550473550209</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.4094687734006</v>
+        <v>262.1916884496571</v>
       </c>
       <c r="AD2" t="n">
-        <v>181317.4218496379</v>
+        <v>211844.5413196858</v>
       </c>
       <c r="AE2" t="n">
-        <v>248086.495734661</v>
+        <v>289855.0473550209</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.556315180024026e-06</v>
+        <v>6.118573434429039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.83984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>224409.4687734006</v>
+        <v>262191.6884496571</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.5802894907047</v>
+        <v>135.846451124716</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.142051123614</v>
+        <v>185.8711075512046</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.0491957181824</v>
+        <v>168.1318299183078</v>
       </c>
       <c r="AD3" t="n">
-        <v>115580.2894907047</v>
+        <v>135846.451124716</v>
       </c>
       <c r="AE3" t="n">
-        <v>158142.051123614</v>
+        <v>185871.1075512046</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.057847080466425e-06</v>
+        <v>8.701930851285591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>143049.1957181824</v>
+        <v>168131.8299183078</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.16234368179508</v>
+        <v>114.513756661827</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.8370727747967</v>
+        <v>156.6827738550366</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.5410433731716</v>
+        <v>141.7291898240091</v>
       </c>
       <c r="AD4" t="n">
-        <v>94162.34368179509</v>
+        <v>114513.756661827</v>
       </c>
       <c r="AE4" t="n">
-        <v>128837.0727747967</v>
+        <v>156682.7738550366</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.611002741373969e-06</v>
+        <v>9.653624770582719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.702256944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>116541.0433731716</v>
+        <v>141729.1898240091</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.93987065404167</v>
+        <v>109.2912836340736</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.6914547789789</v>
+        <v>149.5371558592187</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.0773931299344</v>
+        <v>135.265539580772</v>
       </c>
       <c r="AD5" t="n">
-        <v>88939.87065404168</v>
+        <v>109291.2836340736</v>
       </c>
       <c r="AE5" t="n">
-        <v>121691.4547789788</v>
+        <v>149537.1558592187</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.9079206960608e-06</v>
+        <v>1.016446653172819e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>110077.3931299344</v>
+        <v>135265.539580772</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.05980666607819</v>
+        <v>106.2406274455179</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.7508241711934</v>
+        <v>145.3631134765865</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.512850776645</v>
+        <v>131.4898619448316</v>
       </c>
       <c r="AD6" t="n">
-        <v>86059.80666607819</v>
+        <v>106240.6274455179</v>
       </c>
       <c r="AE6" t="n">
-        <v>117750.8241711934</v>
+        <v>145363.1134765865</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.062314203768685e-06</v>
+        <v>1.043009766026708e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.426649305555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>106512.850776645</v>
+        <v>131489.8619448316</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.9183413538922</v>
+        <v>104.0991621333319</v>
       </c>
       <c r="AB7" t="n">
-        <v>114.8207768562802</v>
+        <v>142.4330661616733</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.8624430651189</v>
+        <v>128.8394542333055</v>
       </c>
       <c r="AD7" t="n">
-        <v>83918.3413538922</v>
+        <v>104099.1621333319</v>
       </c>
       <c r="AE7" t="n">
-        <v>114820.7768562802</v>
+        <v>142433.0661616733</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.174495971303491e-06</v>
+        <v>1.062310428311122e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.363715277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>103862.4430651189</v>
+        <v>128839.4542333055</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.82228711018156</v>
+        <v>102.0031078896213</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.9528629686498</v>
+        <v>139.5651522740428</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.2682388537806</v>
+        <v>126.2452500219672</v>
       </c>
       <c r="AD8" t="n">
-        <v>81822.28711018157</v>
+        <v>102003.1078896213</v>
       </c>
       <c r="AE8" t="n">
-        <v>111952.8629686498</v>
+        <v>139565.1522740428</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.260738098051663e-06</v>
+        <v>1.077148224145811e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.318142361111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>101268.2388537806</v>
+        <v>126245.2500219672</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.01217598397032</v>
+        <v>90.18797198253731</v>
       </c>
       <c r="AB9" t="n">
-        <v>109.4761890693019</v>
+        <v>123.3991620789702</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.02793523535207</v>
+        <v>111.6221192419974</v>
       </c>
       <c r="AD9" t="n">
-        <v>80012.17598397033</v>
+        <v>90187.9719825373</v>
       </c>
       <c r="AE9" t="n">
-        <v>109476.1890693019</v>
+        <v>123399.1620789702</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.319700528769616e-06</v>
+        <v>1.087292599544445e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>99027.93523535208</v>
+        <v>111622.1192419974</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>79.41608785270306</v>
+        <v>89.59188385127004</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.6605949905501</v>
+        <v>122.5835680002184</v>
       </c>
       <c r="AC10" t="n">
-        <v>98.2901803107826</v>
+        <v>110.884364317428</v>
       </c>
       <c r="AD10" t="n">
-        <v>79416.08785270306</v>
+        <v>89591.88385127005</v>
       </c>
       <c r="AE10" t="n">
-        <v>108660.5949905501</v>
+        <v>122583.5680002184</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.340375666813573e-06</v>
+        <v>1.090849718190718e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.276909722222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>98290.1803107826</v>
+        <v>110884.364317428</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>79.08543474036009</v>
+        <v>89.26123073892705</v>
       </c>
       <c r="AB11" t="n">
-        <v>108.2081808148568</v>
+        <v>122.1311538245252</v>
       </c>
       <c r="AC11" t="n">
-        <v>97.88094390905009</v>
+        <v>110.4751279156955</v>
       </c>
       <c r="AD11" t="n">
-        <v>79085.43474036008</v>
+        <v>89261.23073892706</v>
       </c>
       <c r="AE11" t="n">
-        <v>108208.1808148568</v>
+        <v>122131.1538245252</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.375121384915225e-06</v>
+        <v>1.096827653693485e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.257378472222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>97880.94390905008</v>
+        <v>110475.1279156955</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.61530004997906</v>
+        <v>75.67965881522919</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.20003945288516</v>
+        <v>103.5482479418656</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.54586024898276</v>
+        <v>93.66574848919873</v>
       </c>
       <c r="AD2" t="n">
-        <v>58615.30004997907</v>
+        <v>75679.6588152292</v>
       </c>
       <c r="AE2" t="n">
-        <v>80200.03945288516</v>
+        <v>103548.2479418656</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.107685417168441e-06</v>
+        <v>1.424849532517879e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.498263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>72545.86024898276</v>
+        <v>93665.74848919874</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.73640324504069</v>
+        <v>74.80076201029081</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.99749407017856</v>
+        <v>102.345702559159</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.45808410981829</v>
+        <v>92.57797235003426</v>
       </c>
       <c r="AD3" t="n">
-        <v>57736.40324504069</v>
+        <v>74800.76201029081</v>
       </c>
       <c r="AE3" t="n">
-        <v>78997.49407017857</v>
+        <v>102345.702559159</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.239419529947963e-06</v>
+        <v>1.451257748131526e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.433159722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>71458.08410981829</v>
+        <v>92577.97235003425</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.1791341130411</v>
+        <v>160.5365484914139</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.48507850834</v>
+        <v>219.6531880185243</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.3552745244441</v>
+        <v>198.689796039285</v>
       </c>
       <c r="AD2" t="n">
-        <v>131179.1341130411</v>
+        <v>160536.5484914139</v>
       </c>
       <c r="AE2" t="n">
-        <v>179485.07850834</v>
+        <v>219653.1880185243</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.329328745801635e-06</v>
+        <v>7.667562907812322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.989149305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>162355.2745244441</v>
+        <v>198689.796039285</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.9932977325238</v>
+        <v>108.6218012211534</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.7645560647944</v>
+        <v>148.6211404863824</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.1435177316301</v>
+        <v>134.4369474294832</v>
       </c>
       <c r="AD3" t="n">
-        <v>88993.2977325238</v>
+        <v>108621.8012211534</v>
       </c>
       <c r="AE3" t="n">
-        <v>121764.5560647944</v>
+        <v>148621.1404863824</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.699826745736817e-06</v>
+        <v>1.009481670315518e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>110143.5177316301</v>
+        <v>134436.9474294832</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.38723223143377</v>
+        <v>100.8451435194712</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.3576016902807</v>
+        <v>137.9807743370218</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.7297884763644</v>
+        <v>124.8120828915665</v>
       </c>
       <c r="AD4" t="n">
-        <v>81387.23223143377</v>
+        <v>100845.1435194712</v>
       </c>
       <c r="AE4" t="n">
-        <v>111357.6016902807</v>
+        <v>137980.7743370218</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.182367030494711e-06</v>
+        <v>1.094943140353404e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.493923611111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>100729.7884763644</v>
+        <v>124812.0828915665</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.86529427168111</v>
+        <v>97.32320555971855</v>
       </c>
       <c r="AB5" t="n">
-        <v>106.5387307968127</v>
+        <v>133.1619034435538</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.37082385763971</v>
+        <v>120.4531182728418</v>
       </c>
       <c r="AD5" t="n">
-        <v>77865.29427168111</v>
+        <v>97323.20555971854</v>
       </c>
       <c r="AE5" t="n">
-        <v>106538.7307968127</v>
+        <v>133161.9034435538</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.412541433184957e-06</v>
+        <v>1.135708737424476e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.368055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>96370.82385763971</v>
+        <v>120453.1182728418</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.24156096168866</v>
+        <v>94.69947224972611</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.9488231311385</v>
+        <v>129.5719957778796</v>
       </c>
       <c r="AC6" t="n">
-        <v>93.12353194110928</v>
+        <v>117.2058263563114</v>
       </c>
       <c r="AD6" t="n">
-        <v>75241.56096168866</v>
+        <v>94699.47224972611</v>
       </c>
       <c r="AE6" t="n">
-        <v>102948.8231311385</v>
+        <v>129571.9957778796</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.540615128067079e-06</v>
+        <v>1.158391540464022e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.30078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>93123.53194110928</v>
+        <v>117205.8263563114</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>73.44961707451928</v>
+        <v>83.26395832738514</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.4970064497297</v>
+        <v>113.925421130072</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.905713202627</v>
+        <v>103.0525388327801</v>
       </c>
       <c r="AD7" t="n">
-        <v>73449.61707451928</v>
+        <v>83263.95832738515</v>
       </c>
       <c r="AE7" t="n">
-        <v>100497.0064497297</v>
+        <v>113925.421130072</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.633461093354584e-06</v>
+        <v>1.174835250826024e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>90905.713202627</v>
+        <v>103052.5388327801</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>73.61582976547155</v>
+        <v>83.4301710183374</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.7244259862769</v>
+        <v>114.1528406666192</v>
       </c>
       <c r="AC8" t="n">
-        <v>91.11142813779152</v>
+        <v>103.2582537679447</v>
       </c>
       <c r="AD8" t="n">
-        <v>73615.82976547154</v>
+        <v>83430.17101833741</v>
       </c>
       <c r="AE8" t="n">
-        <v>100724.4259862769</v>
+        <v>114152.8406666192</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.622713650427413e-06</v>
+        <v>1.172931798822705e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.26171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>91111.42813779152</v>
+        <v>103258.2537679447</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.9681246544943</v>
+        <v>189.8041075353786</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.8754454477613</v>
+        <v>259.6983534960337</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.9862801279068</v>
+        <v>234.9131071273764</v>
       </c>
       <c r="AD2" t="n">
-        <v>159968.1246544943</v>
+        <v>189804.1075353786</v>
       </c>
       <c r="AE2" t="n">
-        <v>218875.4454477613</v>
+        <v>259698.3534960338</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.918168794569822e-06</v>
+        <v>6.832944246348088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.399305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>197986.2801279068</v>
+        <v>234913.1071273764</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.90128511342631</v>
+        <v>116.9056685010773</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.5846132751207</v>
+        <v>159.9554931572002</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.9309238678519</v>
+        <v>144.6895653892657</v>
       </c>
       <c r="AD3" t="n">
-        <v>96901.28511342632</v>
+        <v>116905.6685010773</v>
       </c>
       <c r="AE3" t="n">
-        <v>132584.6132751206</v>
+        <v>159955.4931572002</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.367652365555885e-06</v>
+        <v>9.360717026395634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.940972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>119930.9238678519</v>
+        <v>144689.5653892657</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.82740403273372</v>
+        <v>107.8317874203847</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.1693288691425</v>
+        <v>147.5402087512221</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.7005367806153</v>
+        <v>133.459178302029</v>
       </c>
       <c r="AD4" t="n">
-        <v>87827.40403273373</v>
+        <v>107831.7874203847</v>
       </c>
       <c r="AE4" t="n">
-        <v>120169.3288691425</v>
+        <v>147540.2087512221</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.882177106851019e-06</v>
+        <v>1.025800324732331e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.598090277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>108700.5367806153</v>
+        <v>133459.178302029</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.67001679489908</v>
+        <v>103.5038079819579</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.4810082393596</v>
+        <v>141.6184763465923</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.5551014881289</v>
+        <v>128.1026077268916</v>
       </c>
       <c r="AD5" t="n">
-        <v>83670.01679489909</v>
+        <v>103503.8079819579</v>
       </c>
       <c r="AE5" t="n">
-        <v>114481.0082393596</v>
+        <v>141618.4763465923</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.131882974286463e-06</v>
+        <v>1.069346847601306e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>103555.1014881289</v>
+        <v>128102.6077268916</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.71943071585963</v>
+        <v>100.5532219029185</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.443886195349</v>
+        <v>137.5813543025817</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.90327670586102</v>
+        <v>124.4507829446237</v>
       </c>
       <c r="AD6" t="n">
-        <v>80719.43071585963</v>
+        <v>100553.2219029184</v>
       </c>
       <c r="AE6" t="n">
-        <v>110443.886195349</v>
+        <v>137581.3543025817</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.299003574358448e-06</v>
+        <v>1.098491220970077e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>99903.27670586102</v>
+        <v>124450.7829446237</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>78.37049897880978</v>
+        <v>98.20429016586858</v>
       </c>
       <c r="AB7" t="n">
-        <v>107.2299741651644</v>
+        <v>134.3674422723971</v>
       </c>
       <c r="AC7" t="n">
-        <v>96.99609592908237</v>
+        <v>121.5436021678451</v>
       </c>
       <c r="AD7" t="n">
-        <v>78370.49897880977</v>
+        <v>98204.29016586859</v>
       </c>
       <c r="AE7" t="n">
-        <v>107229.9741651644</v>
+        <v>134367.4422723971</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.406452174871473e-06</v>
+        <v>1.117229318666918e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.302951388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>96996.09592908237</v>
+        <v>121543.6021678451</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.26741272444767</v>
+        <v>86.26969392682423</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3524387703303</v>
+        <v>118.0380011809185</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.39318847368399</v>
+        <v>106.7726200156174</v>
       </c>
       <c r="AD8" t="n">
-        <v>76267.41272444767</v>
+        <v>86269.69392682423</v>
       </c>
       <c r="AE8" t="n">
-        <v>104352.4387703303</v>
+        <v>118038.0011809185</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.498202749356733e-06</v>
+        <v>1.133229817698431e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>94393.18847368399</v>
+        <v>106772.6200156174</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>76.4129132569438</v>
+        <v>86.41519445932033</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.5515190179219</v>
+        <v>118.23708142851</v>
       </c>
       <c r="AC9" t="n">
-        <v>94.57326878185634</v>
+        <v>106.9527003237898</v>
       </c>
       <c r="AD9" t="n">
-        <v>76412.91325694379</v>
+        <v>86415.19445932034</v>
       </c>
       <c r="AE9" t="n">
-        <v>104551.5190179219</v>
+        <v>118237.08142851</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.489622461838453e-06</v>
+        <v>1.131733490477631e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.259548611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>94573.26878185634</v>
+        <v>106952.7003237898</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.0652939861065</v>
+        <v>247.9923186116336</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.9983114765664</v>
+        <v>339.314030973223</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.6532094690787</v>
+        <v>306.9303760874731</v>
       </c>
       <c r="AD2" t="n">
-        <v>217065.2939861065</v>
+        <v>247992.3186116336</v>
       </c>
       <c r="AE2" t="n">
-        <v>296998.3114765664</v>
+        <v>339314.030973223</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.224008658948019e-06</v>
+        <v>5.480601044592613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.334635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>268653.2094690786</v>
+        <v>306930.3760874731</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.0956089927636</v>
+        <v>144.6852082944415</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.7930869357082</v>
+        <v>197.9646850492629</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.5882730247056</v>
+        <v>179.0712133533978</v>
       </c>
       <c r="AD3" t="n">
-        <v>124095.6089927636</v>
+        <v>144685.2082944415</v>
       </c>
       <c r="AE3" t="n">
-        <v>169793.0869357082</v>
+        <v>197964.6850492629</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.786274582366214e-06</v>
+        <v>8.136349573075475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.266493055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>153588.2730247056</v>
+        <v>179071.2133533978</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.5383111954536</v>
+        <v>121.2131618431521</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.5609528148144</v>
+        <v>165.8491955810182</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.4323285462152</v>
+        <v>150.0207811256197</v>
       </c>
       <c r="AD4" t="n">
-        <v>100538.3111954536</v>
+        <v>121213.161843152</v>
       </c>
       <c r="AE4" t="n">
-        <v>137560.9528148143</v>
+        <v>165849.1955810182</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.364501198840997e-06</v>
+        <v>9.119296498316361e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.806423611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>124432.3285462152</v>
+        <v>150020.7811256197</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.95309648391833</v>
+        <v>115.6279471316168</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.9190156442127</v>
+        <v>158.2072584104166</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.5197271336472</v>
+        <v>143.1081797130516</v>
       </c>
       <c r="AD5" t="n">
-        <v>94953.09648391833</v>
+        <v>115627.9471316168</v>
       </c>
       <c r="AE5" t="n">
-        <v>129919.0156442127</v>
+        <v>158207.2584104166</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.653426282268339e-06</v>
+        <v>9.610449991234577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>117519.7271336472</v>
+        <v>143108.1797130516</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.33294784921517</v>
+        <v>111.8372062963214</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.9657685725283</v>
+        <v>153.0205995638854</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.0392110105568</v>
+        <v>138.4165283073103</v>
       </c>
       <c r="AD6" t="n">
-        <v>91332.94784921517</v>
+        <v>111837.2062963214</v>
       </c>
       <c r="AE6" t="n">
-        <v>124965.7685725283</v>
+        <v>153020.5995638854</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.841933429533798e-06</v>
+        <v>9.930899648014766e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.49609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>113039.2110105568</v>
+        <v>138416.5283073103</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.35308273135857</v>
+        <v>109.8573411784648</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.2568297727938</v>
+        <v>150.3116607641509</v>
       </c>
       <c r="AC7" t="n">
-        <v>110.5888095278487</v>
+        <v>135.9661268246021</v>
       </c>
       <c r="AD7" t="n">
-        <v>89353.08273135858</v>
+        <v>109857.3411784648</v>
       </c>
       <c r="AE7" t="n">
-        <v>122256.8297727938</v>
+        <v>150311.6607641509</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.943292489745931e-06</v>
+        <v>1.010320333266392e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH7" t="n">
-        <v>110588.8095278487</v>
+        <v>135966.1268246021</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>86.74763827846732</v>
+        <v>107.2518967255735</v>
       </c>
       <c r="AB8" t="n">
-        <v>118.6919457282529</v>
+        <v>146.7467767196099</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.3641530131714</v>
+        <v>132.7414703099248</v>
       </c>
       <c r="AD8" t="n">
-        <v>86747.63827846732</v>
+        <v>107251.8967255735</v>
       </c>
       <c r="AE8" t="n">
-        <v>118691.9457282529</v>
+        <v>146746.7767196099</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.068179651214362e-06</v>
+        <v>1.031550323009144e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>107364.1530131714</v>
+        <v>132741.4703099248</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.18459483848477</v>
+        <v>105.688853285591</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.55332073706</v>
+        <v>144.608151728417</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.4296353895582</v>
+        <v>130.8069526863117</v>
       </c>
       <c r="AD9" t="n">
-        <v>85184.59483848477</v>
+        <v>105688.853285591</v>
       </c>
       <c r="AE9" t="n">
-        <v>116553.32073706</v>
+        <v>144608.151728417</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.127470466380232e-06</v>
+        <v>1.04162936862929e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>105429.6353895582</v>
+        <v>130806.9526863117</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>83.56667664981639</v>
+        <v>93.90419148221665</v>
       </c>
       <c r="AB10" t="n">
-        <v>114.3396136938121</v>
+        <v>128.4838575464624</v>
       </c>
       <c r="AC10" t="n">
-        <v>103.4272014395599</v>
+        <v>116.2215385104887</v>
       </c>
       <c r="AD10" t="n">
-        <v>83566.67664981639</v>
+        <v>93904.19148221664</v>
       </c>
       <c r="AE10" t="n">
-        <v>114339.6136938121</v>
+        <v>128483.8575464624</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.190243440532035e-06</v>
+        <v>1.052300358198555e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.298611111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>103427.2014395599</v>
+        <v>116221.5385104887</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>82.43092752969451</v>
+        <v>92.76844236209477</v>
       </c>
       <c r="AB11" t="n">
-        <v>112.7856316419472</v>
+        <v>126.9298754945976</v>
       </c>
       <c r="AC11" t="n">
-        <v>102.021529253697</v>
+        <v>114.8158663246258</v>
       </c>
       <c r="AD11" t="n">
-        <v>82430.92752969451</v>
+        <v>92768.44236209478</v>
       </c>
       <c r="AE11" t="n">
-        <v>112785.6316419472</v>
+        <v>126929.8754945976</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.213489204573258e-06</v>
+        <v>1.056251984021057e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>102021.529253697</v>
+        <v>114815.8663246258</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>81.95114842640302</v>
+        <v>92.28866325880328</v>
       </c>
       <c r="AB12" t="n">
-        <v>112.1291767064639</v>
+        <v>126.2734205591143</v>
       </c>
       <c r="AC12" t="n">
-        <v>101.4277254559158</v>
+        <v>114.2220625268446</v>
       </c>
       <c r="AD12" t="n">
-        <v>81951.14842640303</v>
+        <v>92288.66325880328</v>
       </c>
       <c r="AE12" t="n">
-        <v>112129.1767064639</v>
+        <v>126273.4205591143</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.243605174181319e-06</v>
+        <v>1.061371499256686e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.270399305555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>101427.7254559158</v>
+        <v>114222.0625268446</v>
       </c>
     </row>
   </sheetData>
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.8341984476035</v>
+        <v>134.1358320244828</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.1212164432296</v>
+        <v>183.5305630310783</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.1257880669432</v>
+        <v>166.0146636822067</v>
       </c>
       <c r="AD2" t="n">
-        <v>114834.1984476035</v>
+        <v>134135.8320244828</v>
       </c>
       <c r="AE2" t="n">
-        <v>157121.2164432296</v>
+        <v>183530.5630310783</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.788268269952574e-06</v>
+        <v>8.634380786252413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.613715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>142125.7880669432</v>
+        <v>166014.6636822067</v>
       </c>
     </row>
     <row r="3">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.39404122749825</v>
+        <v>100.610333949806</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.3669180590878</v>
+        <v>137.6594975247388</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.7382157040082</v>
+        <v>124.521468287333</v>
       </c>
       <c r="AD3" t="n">
-        <v>81394.04122749825</v>
+        <v>100610.333949806</v>
       </c>
       <c r="AE3" t="n">
-        <v>111366.9180590878</v>
+        <v>137659.4975247388</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.055256943989656e-06</v>
+        <v>1.09190611856682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.648003472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>100738.2157040082</v>
+        <v>124521.4682873329</v>
       </c>
     </row>
     <row r="4">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.00394916829705</v>
+        <v>94.04964969001257</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.6237121927278</v>
+        <v>128.6828798835319</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.82944913436427</v>
+        <v>116.401566435038</v>
       </c>
       <c r="AD4" t="n">
-        <v>75003.94916829705</v>
+        <v>94049.64969001258</v>
       </c>
       <c r="AE4" t="n">
-        <v>102623.7121927278</v>
+        <v>128682.8798835319</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.511389157079185e-06</v>
+        <v>1.174157550496929e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.394097222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>92829.44913436427</v>
+        <v>116401.566435038</v>
       </c>
     </row>
     <row r="5">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.65914577073494</v>
+        <v>81.26738164043984</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.04720462187409</v>
+        <v>111.193616824248</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.68971702290271</v>
+        <v>100.5814540957916</v>
       </c>
       <c r="AD5" t="n">
-        <v>71659.14577073493</v>
+        <v>81267.38164043984</v>
       </c>
       <c r="AE5" t="n">
-        <v>98047.20462187409</v>
+        <v>111193.616824248</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.718786772718332e-06</v>
+        <v>1.21155624845265e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>88689.71702290271</v>
+        <v>100581.4540957916</v>
       </c>
     </row>
     <row r="6">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.39299315079309</v>
+        <v>80.00122902049799</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.31479874855923</v>
+        <v>109.4612109509331</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.12264953468956</v>
+        <v>99.01438660757849</v>
       </c>
       <c r="AD6" t="n">
-        <v>70392.99315079309</v>
+        <v>80001.22902049799</v>
       </c>
       <c r="AE6" t="n">
-        <v>96314.79874855923</v>
+        <v>109461.2109509331</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.792195550762429e-06</v>
+        <v>1.224793588278902e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.253038194444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>87122.64953468955</v>
+        <v>99014.38660757849</v>
       </c>
     </row>
     <row r="7">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.59423441465954</v>
+        <v>80.20247028436445</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.59014592391917</v>
+        <v>109.736558126293</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.3717179620854</v>
+        <v>99.26345503497434</v>
       </c>
       <c r="AD7" t="n">
-        <v>70594.23441465954</v>
+        <v>80202.47028436445</v>
       </c>
       <c r="AE7" t="n">
-        <v>96590.14592391916</v>
+        <v>109736.5581262931</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.790973768048796e-06</v>
+        <v>1.224573271943375e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.253038194444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>87371.7179620854</v>
+        <v>99263.45503497434</v>
       </c>
     </row>
   </sheetData>
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.8249363494955</v>
+        <v>112.2431260024272</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.3754171773837</v>
+        <v>153.5759968136926</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.1234475380378</v>
+        <v>138.918919223101</v>
       </c>
       <c r="AD2" t="n">
-        <v>93824.9363494955</v>
+        <v>112243.1260024272</v>
       </c>
       <c r="AE2" t="n">
-        <v>128375.4171773837</v>
+        <v>153575.9968136926</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.581499376727076e-06</v>
+        <v>1.041329375123042e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>116123.4475380378</v>
+        <v>138918.919223101</v>
       </c>
     </row>
     <row r="3">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.90195528137632</v>
+        <v>88.23480407973636</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.64293907256166</v>
+        <v>120.7267515866728</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.514911203208</v>
+        <v>109.2047598563324</v>
       </c>
       <c r="AD3" t="n">
-        <v>69901.95528137631</v>
+        <v>88234.80407973636</v>
       </c>
       <c r="AE3" t="n">
-        <v>95642.93907256165</v>
+        <v>120726.7515866728</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.671772688767556e-06</v>
+        <v>1.244739525355144e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86514.911203208</v>
+        <v>109204.7598563324</v>
       </c>
     </row>
     <row r="4">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.41141742983535</v>
+        <v>74.66322743786252</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.49878707553819</v>
+        <v>102.1575216895656</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.95714844940699</v>
+        <v>92.4077511985213</v>
       </c>
       <c r="AD4" t="n">
-        <v>65411.41742983535</v>
+        <v>74663.22743786252</v>
       </c>
       <c r="AE4" t="n">
-        <v>89498.78707553819</v>
+        <v>102157.5216895656</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.028126611769112e-06</v>
+        <v>1.311223776792874e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80957.14844940699</v>
+        <v>92407.75119852129</v>
       </c>
     </row>
     <row r="5">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.53559080226715</v>
+        <v>74.78740081029432</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.66868656184187</v>
+        <v>102.3274211758693</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.11083296719333</v>
+        <v>92.5614357163076</v>
       </c>
       <c r="AD5" t="n">
-        <v>65535.59080226715</v>
+        <v>74787.40081029432</v>
       </c>
       <c r="AE5" t="n">
-        <v>89668.68656184187</v>
+        <v>102327.4211758693</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.024626707168206e-06</v>
+        <v>1.310570806466254e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.276909722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>81110.83296719333</v>
+        <v>92561.43571630761</v>
       </c>
     </row>
   </sheetData>
@@ -25687,28 +25687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.4464534480657</v>
+        <v>89.3800987410509</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.75618960267518</v>
+        <v>122.293794269117</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.42647606869392</v>
+        <v>110.6222461845228</v>
       </c>
       <c r="AD2" t="n">
-        <v>71446.4534480657</v>
+        <v>89380.0987410509</v>
       </c>
       <c r="AE2" t="n">
-        <v>97756.18960267518</v>
+        <v>122293.794269117</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.267507332882526e-06</v>
+        <v>1.205264902291664e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.797743055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>88426.47606869391</v>
+        <v>110622.2461845228</v>
       </c>
     </row>
     <row r="3">
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.89865819602645</v>
+        <v>79.66171128841941</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.69247491984322</v>
+        <v>108.9966678114382</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.60954398014856</v>
+        <v>98.59417881332644</v>
       </c>
       <c r="AD3" t="n">
-        <v>61898.65819602644</v>
+        <v>79661.71128841941</v>
       </c>
       <c r="AE3" t="n">
-        <v>84692.47491984323</v>
+        <v>108996.6678114382</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.144104801500368e-06</v>
+        <v>1.373837846246544e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>76609.54398014856</v>
+        <v>98594.17881332643</v>
       </c>
     </row>
     <row r="4">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.95307658563836</v>
+        <v>79.71612967803134</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.76693256128013</v>
+        <v>109.0711254528751</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.67689548878872</v>
+        <v>98.66153032196659</v>
       </c>
       <c r="AD4" t="n">
-        <v>61953.07658563837</v>
+        <v>79716.12967803134</v>
       </c>
       <c r="AE4" t="n">
-        <v>84766.93256128013</v>
+        <v>109071.1254528751</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.164840336114732e-06</v>
+        <v>1.377825366447729e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.322482638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>76676.89548878872</v>
+        <v>98661.53032196659</v>
       </c>
     </row>
   </sheetData>
@@ -26196,28 +26196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.04463689922414</v>
+        <v>71.8487703994292</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.31450060348416</v>
+        <v>98.30665740450164</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.12659037047023</v>
+        <v>88.92440799610064</v>
       </c>
       <c r="AD2" t="n">
-        <v>55044.63689922415</v>
+        <v>71848.7703994292</v>
       </c>
       <c r="AE2" t="n">
-        <v>75314.50060348416</v>
+        <v>98306.65740450163</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.169703277908305e-06</v>
+        <v>1.47882251153859e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.563368055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>68126.59037047022</v>
+        <v>88924.40799610064</v>
       </c>
     </row>
   </sheetData>
@@ -26493,28 +26493,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.914760064938</v>
+        <v>169.7353015138635</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.1199884931939</v>
+        <v>232.2393277241754</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.5436246791738</v>
+        <v>210.0747322361908</v>
       </c>
       <c r="AD2" t="n">
-        <v>149914.760064938</v>
+        <v>169735.3015138635</v>
       </c>
       <c r="AE2" t="n">
-        <v>205119.9884931939</v>
+        <v>232239.3277241754</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.124398231203041e-06</v>
+        <v>7.246404993887309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185543.6246791738</v>
+        <v>210074.7322361908</v>
       </c>
     </row>
     <row r="3">
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.97343842212032</v>
+        <v>112.7938903624948</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.2103601477123</v>
+        <v>154.3295769091454</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.06958191611</v>
+        <v>139.6005786919004</v>
       </c>
       <c r="AD3" t="n">
-        <v>92973.43842212032</v>
+        <v>112793.8903624948</v>
       </c>
       <c r="AE3" t="n">
-        <v>127210.3601477123</v>
+        <v>154329.5769091454</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.525917633965127e-06</v>
+        <v>9.708819297717215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.8671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>115069.58191611</v>
+        <v>139600.5786919004</v>
       </c>
     </row>
     <row r="4">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.77941548540697</v>
+        <v>104.5998674257815</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.9989364709277</v>
+        <v>143.1181532323609</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.9281607797023</v>
+        <v>129.4591575554927</v>
       </c>
       <c r="AD4" t="n">
-        <v>84779.41548540698</v>
+        <v>104599.8674257815</v>
       </c>
       <c r="AE4" t="n">
-        <v>115998.9364709277</v>
+        <v>143118.1532323609</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.020565748079373e-06</v>
+        <v>1.057789652144808e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.550347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>104928.1607797023</v>
+        <v>129459.1575554927</v>
       </c>
     </row>
     <row r="5">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.55725974471719</v>
+        <v>100.2071194844995</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.2219967181537</v>
+        <v>137.1078017047401</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.70256404894533</v>
+        <v>124.0224255420847</v>
       </c>
       <c r="AD5" t="n">
-        <v>80557.25974471719</v>
+        <v>100207.1194844995</v>
       </c>
       <c r="AE5" t="n">
-        <v>110221.9967181537</v>
+        <v>137107.8017047401</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.282710538000164e-06</v>
+        <v>1.103847457631003e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.400607638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>99702.56404894534</v>
+        <v>124022.4255420847</v>
       </c>
     </row>
     <row r="6">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.81358425222442</v>
+        <v>97.46344399200672</v>
       </c>
       <c r="AB6" t="n">
-        <v>106.467978866907</v>
+        <v>133.3537838534933</v>
       </c>
       <c r="AC6" t="n">
-        <v>96.30682439262327</v>
+        <v>120.6266858857626</v>
       </c>
       <c r="AD6" t="n">
-        <v>77813.58425222442</v>
+        <v>97463.44399200672</v>
       </c>
       <c r="AE6" t="n">
-        <v>106467.978866907</v>
+        <v>133353.7838534933</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.416343325348966e-06</v>
+        <v>1.127326211216564e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.331163194444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>96306.82439262327</v>
+        <v>120626.6858857626</v>
       </c>
     </row>
     <row r="7">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.61469861784481</v>
+        <v>85.52501409658309</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.4593665339627</v>
+        <v>117.0190973842276</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.58534979812021</v>
+        <v>105.850958967242</v>
       </c>
       <c r="AD7" t="n">
-        <v>75614.69861784481</v>
+        <v>85525.01409658309</v>
       </c>
       <c r="AE7" t="n">
-        <v>103459.3665339626</v>
+        <v>117019.0973842276</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.54071930944737e-06</v>
+        <v>1.149178580987061e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.268229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>93585.34979812021</v>
+        <v>105850.958967242</v>
       </c>
     </row>
     <row r="8">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>74.81788412812804</v>
+        <v>84.72819960686634</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.3691297961584</v>
+        <v>115.9288606464234</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.59916372441479</v>
+        <v>104.8647728935366</v>
       </c>
       <c r="AD8" t="n">
-        <v>74817.88412812805</v>
+        <v>84728.19960686634</v>
       </c>
       <c r="AE8" t="n">
-        <v>102369.1297961584</v>
+        <v>115928.8606464234</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.556377093668785e-06</v>
+        <v>1.151929591908288e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.259548611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>92599.1637244148</v>
+        <v>104864.7728935366</v>
       </c>
     </row>
     <row r="9">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.99244611566776</v>
+        <v>84.90276159440607</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.6079732086415</v>
+        <v>116.1677040589065</v>
       </c>
       <c r="AC9" t="n">
-        <v>92.8152122568294</v>
+        <v>105.0808214259512</v>
       </c>
       <c r="AD9" t="n">
-        <v>74992.44611566776</v>
+        <v>84902.76159440607</v>
       </c>
       <c r="AE9" t="n">
-        <v>102607.9732086415</v>
+        <v>116167.7040589065</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.554210607801673e-06</v>
+        <v>1.151548948887741e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.259548611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>92815.2122568294</v>
+        <v>105080.8214259512</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.7969359931251</v>
+        <v>234.4854049643509</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.8439587119364</v>
+        <v>320.8332758380452</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.231482652505</v>
+        <v>290.2133982844881</v>
       </c>
       <c r="AD2" t="n">
-        <v>203796.9359931251</v>
+        <v>234485.4049643509</v>
       </c>
       <c r="AE2" t="n">
-        <v>278843.9587119364</v>
+        <v>320833.2758380452</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.386051049907377e-06</v>
+        <v>5.789769945701254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>252231.482652505</v>
+        <v>290213.3982844881</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.786668808223</v>
+        <v>140.2172310070333</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.8974048781982</v>
+        <v>191.8514014113877</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.2552665881207</v>
+        <v>173.5413729258721</v>
       </c>
       <c r="AD3" t="n">
-        <v>119786.668808223</v>
+        <v>140217.2310070333</v>
       </c>
       <c r="AE3" t="n">
-        <v>163897.4048781982</v>
+        <v>191851.4014113877</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.920221985501026e-06</v>
+        <v>8.41303127388219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.186197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>148255.2665881207</v>
+        <v>173541.372925872</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.5930845196539</v>
+        <v>118.1088980644847</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.5311637427565</v>
+        <v>161.6018049285953</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.7871368873489</v>
+        <v>146.1787554758124</v>
       </c>
       <c r="AD4" t="n">
-        <v>97593.0845196539</v>
+        <v>118108.8980644847</v>
       </c>
       <c r="AE4" t="n">
-        <v>133531.1637427566</v>
+        <v>161601.8049285953</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.469285697590149e-06</v>
+        <v>9.351869032579223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.765190972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>120787.1368873489</v>
+        <v>146178.7554758124</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.18702557618816</v>
+        <v>112.702839121019</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.1343553978222</v>
+        <v>154.204996583661</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.096269549367</v>
+        <v>139.4878881378306</v>
       </c>
       <c r="AD5" t="n">
-        <v>92187.02557618816</v>
+        <v>112702.839121019</v>
       </c>
       <c r="AE5" t="n">
-        <v>126134.3553978222</v>
+        <v>154204.996583661</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.763840443930391e-06</v>
+        <v>9.855524822934492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.572048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>114096.269549367</v>
+        <v>139487.8881378306</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.81893366636248</v>
+        <v>109.1641550106011</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.5259834570729</v>
+        <v>149.3632128680648</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.9277141587507</v>
+        <v>135.1081974645632</v>
       </c>
       <c r="AD6" t="n">
-        <v>88818.93366636249</v>
+        <v>109164.1550106011</v>
       </c>
       <c r="AE6" t="n">
-        <v>121525.9834570729</v>
+        <v>149363.2128680648</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.948981007754427e-06</v>
+        <v>1.017209455456565e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.461371527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>109927.7141587507</v>
+        <v>135108.1974645632</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.47178623997956</v>
+        <v>106.8170075842182</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.3145127994611</v>
+        <v>146.151742210453</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.0227417533729</v>
+        <v>132.2032250591855</v>
       </c>
       <c r="AD7" t="n">
-        <v>86471.78623997957</v>
+        <v>106817.0075842182</v>
       </c>
       <c r="AE7" t="n">
-        <v>118314.5127994611</v>
+        <v>146151.742210453</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.054694276898445e-06</v>
+        <v>1.035285246386197e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.400607638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>107022.7417533729</v>
+        <v>132203.2250591855</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.57487165362464</v>
+        <v>104.9200929978633</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.7190705764463</v>
+        <v>143.5562999874382</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.6750048933958</v>
+        <v>129.8554881992083</v>
       </c>
       <c r="AD8" t="n">
-        <v>84574.87165362464</v>
+        <v>104920.0929978633</v>
       </c>
       <c r="AE8" t="n">
-        <v>115719.0705764463</v>
+        <v>143556.2999874382</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.143516197830941e-06</v>
+        <v>1.05047280501289e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.352864583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>104675.0048933958</v>
+        <v>129855.4881992083</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.48327805629023</v>
+        <v>102.8284994005289</v>
       </c>
       <c r="AB9" t="n">
-        <v>112.8572599419777</v>
+        <v>140.6944893529696</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.0863214493035</v>
+        <v>127.2668047551161</v>
       </c>
       <c r="AD9" t="n">
-        <v>82483.27805629023</v>
+        <v>102828.4994005289</v>
       </c>
       <c r="AE9" t="n">
-        <v>112857.2599419777</v>
+        <v>140694.4893529696</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.233666651768836e-06</v>
+        <v>1.065887527978015e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.302951388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>102086.3214493035</v>
+        <v>127266.8047551161</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>81.47527855425116</v>
+        <v>91.73327483521763</v>
       </c>
       <c r="AB10" t="n">
-        <v>111.478070553489</v>
+        <v>125.5135136159568</v>
       </c>
       <c r="AC10" t="n">
-        <v>100.8387599603473</v>
+        <v>113.5346800358057</v>
       </c>
       <c r="AD10" t="n">
-        <v>81475.27855425116</v>
+        <v>91733.27483521763</v>
       </c>
       <c r="AE10" t="n">
-        <v>111478.070553489</v>
+        <v>125513.5136159568</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.258434302798091e-06</v>
+        <v>1.070122520287382e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.289930555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>100838.7599603473</v>
+        <v>113534.6800358057</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>80.59872783062455</v>
+        <v>90.85672411159103</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.278735182735</v>
+        <v>124.3141782452028</v>
       </c>
       <c r="AC11" t="n">
-        <v>99.75388747409993</v>
+        <v>112.4498075495583</v>
       </c>
       <c r="AD11" t="n">
-        <v>80598.72783062456</v>
+        <v>90856.72411159103</v>
       </c>
       <c r="AE11" t="n">
-        <v>110278.735182735</v>
+        <v>124314.1782452028</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.293640427441205e-06</v>
+        <v>1.076142375255867e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.272569444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>99753.88747409993</v>
+        <v>112449.8075495583</v>
       </c>
     </row>
     <row r="12">
@@ -28592,28 +28592,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>80.79956787882021</v>
+        <v>91.05756415978668</v>
       </c>
       <c r="AB12" t="n">
-        <v>110.5535333971138</v>
+        <v>124.5889764595815</v>
       </c>
       <c r="AC12" t="n">
-        <v>100.0024593325802</v>
+        <v>112.6983794080385</v>
       </c>
       <c r="AD12" t="n">
-        <v>80799.56787882021</v>
+        <v>91057.56415978668</v>
       </c>
       <c r="AE12" t="n">
-        <v>110553.5333971138</v>
+        <v>124588.9764595815</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.292311894435805e-06</v>
+        <v>1.075915210917434e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.272569444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>100002.4593325802</v>
+        <v>112698.3794080385</v>
       </c>
     </row>
   </sheetData>
@@ -28889,28 +28889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.18636567675458</v>
+        <v>68.46222261024887</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.40368781887652</v>
+        <v>93.67303331540342</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.58902006916406</v>
+        <v>84.73301048673221</v>
       </c>
       <c r="AD2" t="n">
-        <v>52186.36567675458</v>
+        <v>68462.22261024888</v>
       </c>
       <c r="AE2" t="n">
-        <v>71403.68781887653</v>
+        <v>93673.03331540342</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.862124274124093e-06</v>
+        <v>1.470869294843367e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.856336805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>64589.02006916406</v>
+        <v>84733.01048673221</v>
       </c>
     </row>
   </sheetData>
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.6634384085123</v>
+        <v>119.3346750126503</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.7321573879442</v>
+        <v>163.2789670265369</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.5871935951727</v>
+        <v>147.6958515770388</v>
       </c>
       <c r="AD2" t="n">
-        <v>100663.4384085123</v>
+        <v>119334.6750126503</v>
       </c>
       <c r="AE2" t="n">
-        <v>137732.1573879442</v>
+        <v>163278.9670265369</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.29185233353766e-06</v>
+        <v>9.749880910275951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.286024305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>124587.1935951728</v>
+        <v>147695.8515770388</v>
       </c>
     </row>
     <row r="3">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.665192296219</v>
+        <v>92.42168024637753</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7919659785667</v>
+        <v>126.4554202698086</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.17252220801016</v>
+        <v>114.3866924405885</v>
       </c>
       <c r="AD3" t="n">
-        <v>73665.192296219</v>
+        <v>92421.68024637754</v>
       </c>
       <c r="AE3" t="n">
-        <v>100791.9659785666</v>
+        <v>126455.4202698086</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.466983424075588e-06</v>
+        <v>1.191498066449531e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.506944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>91172.52220801017</v>
+        <v>114386.6924405885</v>
       </c>
     </row>
     <row r="4">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.35704839514543</v>
+        <v>86.94294414471175</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.52912931434001</v>
+        <v>118.9591718307351</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.60284048155971</v>
+        <v>107.605875431487</v>
       </c>
       <c r="AD4" t="n">
-        <v>68357.04839514542</v>
+        <v>86942.94414471174</v>
       </c>
       <c r="AE4" t="n">
-        <v>93529.12931434001</v>
+        <v>118959.1718307351</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.85608099167366e-06</v>
+        <v>1.263186668236783e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>84602.84048155972</v>
+        <v>107605.875431487</v>
       </c>
     </row>
     <row r="5">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.99191300513037</v>
+        <v>76.37024648876067</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.66129084819946</v>
+        <v>104.4931404633688</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.91326589709928</v>
+        <v>94.52046179461502</v>
       </c>
       <c r="AD5" t="n">
-        <v>66991.91300513037</v>
+        <v>76370.24648876068</v>
       </c>
       <c r="AE5" t="n">
-        <v>91661.29084819945</v>
+        <v>104493.1404633688</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.959129662544381e-06</v>
+        <v>1.282172690627927e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.259548611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>82913.26589709928</v>
+        <v>94520.46179461501</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.5942222190219</v>
+        <v>151.650174087157</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.7388233153661</v>
+        <v>207.494458519456</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.7300654411112</v>
+        <v>187.6914786187199</v>
       </c>
       <c r="AD2" t="n">
-        <v>122594.2222190219</v>
+        <v>151650.174087157</v>
       </c>
       <c r="AE2" t="n">
-        <v>167738.8233153661</v>
+        <v>207494.458519456</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.555683556437146e-06</v>
+        <v>8.138396207622169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.793836805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>151730.0654411112</v>
+        <v>187691.4786187199</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.25607294542156</v>
+        <v>104.6836014272261</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.6511202363624</v>
+        <v>143.2327217872208</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.5181010419097</v>
+        <v>129.5627918482747</v>
       </c>
       <c r="AD3" t="n">
-        <v>85256.07294542156</v>
+        <v>104683.6014272261</v>
       </c>
       <c r="AE3" t="n">
-        <v>116651.1202363624</v>
+        <v>143232.7217872207</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.8692096336482e-06</v>
+        <v>1.048491468568511e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.719618055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>105518.1010419097</v>
+        <v>129562.7918482747</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.59813650234867</v>
+        <v>97.85507278356097</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.541437867529</v>
+        <v>133.8896276435405</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.2778339728354</v>
+        <v>121.1113894965493</v>
       </c>
       <c r="AD4" t="n">
-        <v>78598.13650234867</v>
+        <v>97855.07278356097</v>
       </c>
       <c r="AE4" t="n">
-        <v>107541.437867529</v>
+        <v>133889.6276435405</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.309734925974689e-06</v>
+        <v>1.1271880971648e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.461371527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>97277.83397283539</v>
+        <v>121111.3894965493</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.59092737588179</v>
+        <v>93.84786365709407</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.05859755511</v>
+        <v>128.4067873311215</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.31826824461719</v>
+        <v>116.1518237683311</v>
       </c>
       <c r="AD5" t="n">
-        <v>74590.92737588179</v>
+        <v>93847.86365709407</v>
       </c>
       <c r="AE5" t="n">
-        <v>102058.59755511</v>
+        <v>128406.7873311215</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.575780808320793e-06</v>
+        <v>1.174715252488827e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.3203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>92318.26824461718</v>
+        <v>116151.8237683311</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.97028170041926</v>
+        <v>81.68413544987256</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.47291452721643</v>
+        <v>111.763837772194</v>
       </c>
       <c r="AC6" t="n">
-        <v>89.07479777236694</v>
+        <v>101.097253956776</v>
       </c>
       <c r="AD6" t="n">
-        <v>71970.28170041926</v>
+        <v>81684.13544987256</v>
       </c>
       <c r="AE6" t="n">
-        <v>98472.91452721643</v>
+        <v>111763.837772194</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.709004994488055e-06</v>
+        <v>1.198514781100405e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>89074.79777236693</v>
+        <v>101097.253956776</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.88481690043342</v>
+        <v>81.59867064988671</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.35597781743499</v>
+        <v>111.6469010624126</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.96902133804528</v>
+        <v>100.9914775224543</v>
       </c>
       <c r="AD7" t="n">
-        <v>71884.81690043342</v>
+        <v>81598.67064988671</v>
       </c>
       <c r="AE7" t="n">
-        <v>98355.97781743499</v>
+        <v>111646.9010624126</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.705885697077793e-06</v>
+        <v>1.197957541382158e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>88969.02133804528</v>
+        <v>100991.4775224543</v>
       </c>
     </row>
   </sheetData>
